--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H2">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I2">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J2">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>65.40374010436133</v>
+        <v>65.35671533390222</v>
       </c>
       <c r="R2">
-        <v>588.6336609392521</v>
+        <v>588.21043800512</v>
       </c>
       <c r="S2">
-        <v>0.01038415722550339</v>
+        <v>0.01180757841744613</v>
       </c>
       <c r="T2">
-        <v>0.01038415722550339</v>
+        <v>0.01180757841744613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H3">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I3">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J3">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>81.3354329318222</v>
+        <v>68.17745575822222</v>
       </c>
       <c r="R3">
-        <v>732.0188963863999</v>
+        <v>613.5971018240001</v>
       </c>
       <c r="S3">
-        <v>0.01291363341332994</v>
+        <v>0.01231718349146584</v>
       </c>
       <c r="T3">
-        <v>0.01291363341332994</v>
+        <v>0.01231718349146584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H4">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I4">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J4">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>60.94177030940645</v>
+        <v>31.94967811313778</v>
       </c>
       <c r="R4">
-        <v>548.4759327846581</v>
+        <v>287.54710301824</v>
       </c>
       <c r="S4">
-        <v>0.009675729912136811</v>
+        <v>0.00577214334909129</v>
       </c>
       <c r="T4">
-        <v>0.009675729912136813</v>
+        <v>0.005772143349091291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H5">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I5">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J5">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>9.868625084018666</v>
+        <v>8.280914599039999</v>
       </c>
       <c r="R5">
-        <v>88.817625756168</v>
+        <v>74.52823139135999</v>
       </c>
       <c r="S5">
-        <v>0.00156684242076185</v>
+        <v>0.001496059708582378</v>
       </c>
       <c r="T5">
-        <v>0.001566842420761851</v>
+        <v>0.001496059708582379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.524235333333333</v>
+        <v>1.277653333333333</v>
       </c>
       <c r="H6">
-        <v>4.572706</v>
+        <v>3.83296</v>
       </c>
       <c r="I6">
-        <v>0.04286319827073885</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="J6">
-        <v>0.04286319827073886</v>
+        <v>0.03565942841870452</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>52.42067748076311</v>
+        <v>23.61551433024</v>
       </c>
       <c r="R6">
-        <v>471.7860973268679</v>
+        <v>212.53962897216</v>
       </c>
       <c r="S6">
-        <v>0.00832283529900686</v>
+        <v>0.004266463452118881</v>
       </c>
       <c r="T6">
-        <v>0.008322835299006862</v>
+        <v>0.004266463452118882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H7">
         <v>100.372597</v>
       </c>
       <c r="I7">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J7">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>1435.636414802919</v>
+        <v>1711.47709588764</v>
       </c>
       <c r="R7">
-        <v>12920.72773322627</v>
+        <v>15403.29386298876</v>
       </c>
       <c r="S7">
-        <v>0.2279361123107608</v>
+        <v>0.3092015857301453</v>
       </c>
       <c r="T7">
-        <v>0.2279361123107609</v>
+        <v>0.3092015857301453</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H8">
         <v>100.372597</v>
       </c>
       <c r="I8">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J8">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>1785.342996354088</v>
+        <v>1785.342996354089</v>
       </c>
       <c r="R8">
-        <v>16068.08696718679</v>
+        <v>16068.0869671868</v>
       </c>
       <c r="S8">
-        <v>0.2834590551856823</v>
+        <v>0.3225464640288325</v>
       </c>
       <c r="T8">
-        <v>0.2834590551856823</v>
+        <v>0.3225464640288326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H9">
         <v>100.372597</v>
       </c>
       <c r="I9">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J9">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>1337.694518679447</v>
+        <v>836.6568306295133</v>
       </c>
       <c r="R9">
-        <v>12039.25066811502</v>
+        <v>7529.911475665619</v>
       </c>
       <c r="S9">
-        <v>0.2123858693630759</v>
+        <v>0.151153421430062</v>
       </c>
       <c r="T9">
-        <v>0.212385869363076</v>
+        <v>0.151153421430062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H10">
         <v>100.372597</v>
       </c>
       <c r="I10">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J10">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>216.6199901113906</v>
+        <v>216.849876816053</v>
       </c>
       <c r="R10">
-        <v>1949.579911002516</v>
+        <v>1951.648891344477</v>
       </c>
       <c r="S10">
-        <v>0.03439277374526891</v>
+        <v>0.03917687589160245</v>
       </c>
       <c r="T10">
-        <v>0.03439277374526892</v>
+        <v>0.03917687589160246</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.45753233333333</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H11">
         <v>100.372597</v>
       </c>
       <c r="I11">
-        <v>0.9408631401537662</v>
+        <v>0.9338029715731383</v>
       </c>
       <c r="J11">
-        <v>0.9408631401537663</v>
+        <v>0.9338029715731384</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>1150.653362635518</v>
+        <v>618.4125330858931</v>
       </c>
       <c r="R11">
-        <v>10355.88026371966</v>
+        <v>5565.712797773038</v>
       </c>
       <c r="S11">
-        <v>0.1826893295489782</v>
+        <v>0.111724624492496</v>
       </c>
       <c r="T11">
-        <v>0.1826893295489782</v>
+        <v>0.111724624492496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H12">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I12">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J12">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>3.119385433229333</v>
+        <v>8.097036396683889</v>
       </c>
       <c r="R12">
-        <v>28.074468899064</v>
+        <v>72.87332757015498</v>
       </c>
       <c r="S12">
-        <v>0.0004952650832186642</v>
+        <v>0.001462839613562509</v>
       </c>
       <c r="T12">
-        <v>0.0004952650832186643</v>
+        <v>0.001462839613562509</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H13">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I13">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J13">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>3.879236329422221</v>
+        <v>8.44649762288889</v>
       </c>
       <c r="R13">
-        <v>34.91312696479999</v>
+        <v>76.018478606</v>
       </c>
       <c r="S13">
-        <v>0.0006159066728497203</v>
+        <v>0.001525974531086921</v>
       </c>
       <c r="T13">
-        <v>0.0006159066728497204</v>
+        <v>0.001525974531086922</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H14">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I14">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J14">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>2.906574918728444</v>
+        <v>3.958242167201111</v>
       </c>
       <c r="R14">
-        <v>26.159174268556</v>
+        <v>35.62417950480999</v>
       </c>
       <c r="S14">
-        <v>0.0004614771402311326</v>
+        <v>0.0007151102154643502</v>
       </c>
       <c r="T14">
-        <v>0.0004614771402311327</v>
+        <v>0.0007151102154643502</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H15">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I15">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J15">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>0.4706771399306666</v>
+        <v>1.025921614385</v>
       </c>
       <c r="R15">
-        <v>4.236094259375999</v>
+        <v>9.233294529464999</v>
       </c>
       <c r="S15">
-        <v>7.472944843355191E-05</v>
+        <v>0.0001853466755499591</v>
       </c>
       <c r="T15">
-        <v>7.472944843355192E-05</v>
+        <v>0.0001853466755499591</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.07269733333333334</v>
+        <v>0.1582883333333333</v>
       </c>
       <c r="H16">
-        <v>0.218092</v>
+        <v>0.474865</v>
       </c>
       <c r="I16">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="J16">
-        <v>0.002044330126901222</v>
+        <v>0.004417842731478576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>2.500167382975111</v>
+        <v>2.925723517185</v>
       </c>
       <c r="R16">
-        <v>22.501506446776</v>
+        <v>26.331511654665</v>
       </c>
       <c r="S16">
-        <v>0.0003969517821681525</v>
+        <v>0.0005285716958148357</v>
       </c>
       <c r="T16">
-        <v>0.0003969517821681526</v>
+        <v>0.0005285716958148358</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H17">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I17">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J17">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>18.91779996524867</v>
+        <v>33.25397337810956</v>
       </c>
       <c r="R17">
-        <v>170.260199687238</v>
+        <v>299.2857604029859</v>
       </c>
       <c r="S17">
-        <v>0.003003580665055348</v>
+        <v>0.006007782005991009</v>
       </c>
       <c r="T17">
-        <v>0.003003580665055348</v>
+        <v>0.006007782005991009</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H18">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I18">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J18">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>23.52598563684444</v>
+        <v>34.68918667635556</v>
       </c>
       <c r="R18">
-        <v>211.7338707316</v>
+        <v>312.2026800872</v>
       </c>
       <c r="S18">
-        <v>0.003735222685248799</v>
+        <v>0.006267072783965749</v>
       </c>
       <c r="T18">
-        <v>0.003735222685248801</v>
+        <v>0.00626707278396575</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H19">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I19">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J19">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>17.62719101999189</v>
+        <v>16.25622921815244</v>
       </c>
       <c r="R19">
-        <v>158.644719179927</v>
+        <v>146.306062963372</v>
       </c>
       <c r="S19">
-        <v>0.002798670576078742</v>
+        <v>0.002936908629582646</v>
       </c>
       <c r="T19">
-        <v>0.002798670576078742</v>
+        <v>0.002936908629582646</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H20">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I20">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J20">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>2.854464820721333</v>
+        <v>4.213389736862</v>
       </c>
       <c r="R20">
-        <v>25.690183386492</v>
+        <v>37.92050763175799</v>
       </c>
       <c r="S20">
-        <v>0.0004532036156608434</v>
+        <v>0.0007612060897964708</v>
       </c>
       <c r="T20">
-        <v>0.0004532036156608436</v>
+        <v>0.0007612060897964708</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4408796666666667</v>
+        <v>0.6500793333333333</v>
       </c>
       <c r="H21">
-        <v>1.322639</v>
+        <v>1.950238</v>
       </c>
       <c r="I21">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="J21">
-        <v>0.01239802814736215</v>
+        <v>0.01814377722711363</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>15.16249512706022</v>
+        <v>12.015745908222</v>
       </c>
       <c r="R21">
-        <v>136.462456143542</v>
+        <v>108.141713173998</v>
       </c>
       <c r="S21">
-        <v>0.002407350605318412</v>
+        <v>0.002170807717777755</v>
       </c>
       <c r="T21">
-        <v>0.002407350605318413</v>
+        <v>0.002170807717777755</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H22">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I22">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J22">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N22">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q22">
-        <v>2.794333834108</v>
+        <v>14.618401940926</v>
       </c>
       <c r="R22">
-        <v>25.149004506972</v>
+        <v>131.565617468334</v>
       </c>
       <c r="S22">
-        <v>0.000443656613943187</v>
+        <v>0.002641012884037857</v>
       </c>
       <c r="T22">
-        <v>0.0004436566139431871</v>
+        <v>0.002641012884037858</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H23">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I23">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J23">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
         <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q23">
-        <v>3.475005432266665</v>
+        <v>15.2493197752</v>
       </c>
       <c r="R23">
-        <v>31.27504889039999</v>
+        <v>137.2438779768</v>
       </c>
       <c r="S23">
-        <v>0.0005517268998769256</v>
+        <v>0.002754996761059462</v>
       </c>
       <c r="T23">
-        <v>0.0005517268998769257</v>
+        <v>0.002754996761059463</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H24">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I24">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J24">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N24">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q24">
-        <v>2.603698969115333</v>
+        <v>7.146216485251998</v>
       </c>
       <c r="R24">
-        <v>23.433290722038</v>
+        <v>64.31594836726799</v>
       </c>
       <c r="S24">
-        <v>0.000413389500662085</v>
+        <v>0.001291061080817343</v>
       </c>
       <c r="T24">
-        <v>0.000413389500662085</v>
+        <v>0.001291061080817343</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H25">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I25">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J25">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N25">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q25">
-        <v>0.4216308260719999</v>
+        <v>1.852200457578</v>
       </c>
       <c r="R25">
-        <v>3.794677434647999</v>
+        <v>16.669804118202</v>
       </c>
       <c r="S25">
-        <v>6.694236112589779E-05</v>
+        <v>0.0003346251725771367</v>
       </c>
       <c r="T25">
-        <v>6.69423611258978E-05</v>
+        <v>0.0003346251725771367</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.065122</v>
+        <v>0.285774</v>
       </c>
       <c r="H26">
-        <v>0.195366</v>
+        <v>0.8573219999999999</v>
       </c>
       <c r="I26">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564981</v>
       </c>
       <c r="J26">
-        <v>0.001831303301231517</v>
+        <v>0.007975980049564983</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N26">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q26">
-        <v>2.239640614705333</v>
+        <v>5.282105729417999</v>
       </c>
       <c r="R26">
-        <v>20.156765532348</v>
+        <v>47.53895156476199</v>
       </c>
       <c r="S26">
-        <v>0.0003555879256234216</v>
+        <v>0.0009542841510731819</v>
       </c>
       <c r="T26">
-        <v>0.0003555879256234217</v>
+        <v>0.0009542841510731822</v>
       </c>
     </row>
   </sheetData>
